--- a/outputs-HGR-r202/f__Bifidobacteriaceae.xlsx
+++ b/outputs-HGR-r202/f__Bifidobacteriaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +754,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -707,6 +777,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +800,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -743,6 +823,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +846,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -779,6 +869,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -797,6 +892,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -815,6 +915,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -833,6 +938,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -851,6 +961,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -869,6 +984,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -887,6 +1007,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -905,6 +1030,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -923,6 +1053,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -941,6 +1076,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -959,6 +1099,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -977,6 +1122,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -995,6 +1145,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1013,6 +1168,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1031,6 +1191,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1049,6 +1214,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1067,6 +1237,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1085,6 +1260,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1103,6 +1283,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1121,6 +1306,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1139,6 +1329,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1157,6 +1352,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1175,6 +1375,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1193,6 +1398,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1211,6 +1421,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1229,6 +1444,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1247,6 +1467,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1265,6 +1490,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1283,6 +1513,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1301,6 +1536,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1319,6 +1559,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1337,6 +1582,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1355,6 +1605,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1373,6 +1628,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1391,6 +1651,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1409,6 +1674,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1427,6 +1697,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1445,6 +1720,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1463,6 +1743,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1481,6 +1766,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1499,6 +1789,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1517,6 +1812,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1535,6 +1835,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1553,6 +1858,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1571,6 +1881,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1589,6 +1904,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1607,6 +1927,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1625,6 +1950,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1643,6 +1973,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1661,6 +1996,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1679,6 +2019,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1697,6 +2042,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1715,6 +2065,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1733,6 +2088,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1751,6 +2111,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1769,6 +2134,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -1787,6 +2157,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -1805,6 +2180,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -1823,6 +2203,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -1841,6 +2226,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -1859,6 +2249,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -1877,6 +2272,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -1895,6 +2295,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -1913,6 +2318,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -1931,6 +2341,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -1949,6 +2364,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -1967,6 +2387,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -1985,6 +2410,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2003,6 +2433,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2021,6 +2456,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2039,6 +2479,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2057,6 +2502,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2075,6 +2525,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2093,6 +2548,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2111,6 +2571,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2129,6 +2594,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2147,6 +2617,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2165,6 +2640,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2183,6 +2663,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2201,6 +2686,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2219,6 +2709,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2237,6 +2732,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2255,6 +2755,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2273,6 +2778,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2291,6 +2801,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2309,6 +2824,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2327,6 +2847,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2345,6 +2870,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -2363,6 +2893,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -2377,6 +2912,11 @@
         <v>1</v>
       </c>
       <c r="D108" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>g__Bifidobacterium</t>
         </is>
